--- a/PubliData/excel/onrole.xlsx
+++ b/PubliData/excel/onrole.xlsx
@@ -7,99 +7,23 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ROLE" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>编号</t>
+    <t>角色编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名</t>
+    <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监</t>
-  </si>
-  <si>
-    <t>行政人员</t>
-  </si>
-  <si>
-    <t>品管部员工</t>
-  </si>
-  <si>
-    <t>董事长助理</t>
-  </si>
-  <si>
-    <t>营销部员工</t>
-  </si>
-  <si>
-    <t>采购部员工</t>
-  </si>
-  <si>
-    <t>仓库经理</t>
-  </si>
-  <si>
-    <t>仓库员工</t>
-  </si>
-  <si>
-    <t>技术员</t>
-  </si>
-  <si>
-    <t>品管部经理</t>
-  </si>
-  <si>
-    <t>营销部主管</t>
-  </si>
-  <si>
-    <t>采购部主管</t>
-  </si>
-  <si>
-    <t>财务部员工</t>
-  </si>
-  <si>
-    <t>PR000004</t>
-  </si>
-  <si>
-    <t>PR000005</t>
-  </si>
-  <si>
-    <t>PR000006</t>
-  </si>
-  <si>
-    <t>PR000007</t>
-  </si>
-  <si>
-    <t>PR000008</t>
-  </si>
-  <si>
-    <t>PR000009</t>
-  </si>
-  <si>
-    <t>PR000010</t>
-  </si>
-  <si>
-    <t>PR000011</t>
-  </si>
-  <si>
-    <t>PR000012</t>
-  </si>
-  <si>
-    <t>PR000013</t>
-  </si>
-  <si>
-    <t>PR000014</t>
-  </si>
-  <si>
-    <t>PR000015</t>
-  </si>
-  <si>
-    <t>PR000016</t>
   </si>
   <si>
     <t>PR000003</t>
@@ -108,6 +32,84 @@
   <si>
     <t>高层管理者</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR000004</t>
+  </si>
+  <si>
+    <t>技术总监</t>
+  </si>
+  <si>
+    <t>PR000005</t>
+  </si>
+  <si>
+    <t>行政人员</t>
+  </si>
+  <si>
+    <t>PR000006</t>
+  </si>
+  <si>
+    <t>品管部员工</t>
+  </si>
+  <si>
+    <t>PR000007</t>
+  </si>
+  <si>
+    <t>董事长助理</t>
+  </si>
+  <si>
+    <t>PR000008</t>
+  </si>
+  <si>
+    <t>营销部员工</t>
+  </si>
+  <si>
+    <t>PR000009</t>
+  </si>
+  <si>
+    <t>采购部员工</t>
+  </si>
+  <si>
+    <t>PR000010</t>
+  </si>
+  <si>
+    <t>仓库经理</t>
+  </si>
+  <si>
+    <t>PR000011</t>
+  </si>
+  <si>
+    <t>仓库员工</t>
+  </si>
+  <si>
+    <t>PR000012</t>
+  </si>
+  <si>
+    <t>技术员</t>
+  </si>
+  <si>
+    <t>PR000013</t>
+  </si>
+  <si>
+    <t>品管部经理</t>
+  </si>
+  <si>
+    <t>PR000014</t>
+  </si>
+  <si>
+    <t>营销部主管</t>
+  </si>
+  <si>
+    <t>PR000015</t>
+  </si>
+  <si>
+    <t>采购部主管</t>
+  </si>
+  <si>
+    <t>PR000016</t>
+  </si>
+  <si>
+    <t>财务部员工</t>
   </si>
 </sst>
 </file>
@@ -459,13 +461,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -477,98 +476,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -576,15 +575,15 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -592,4 +591,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>